--- a/October'21/20.10.2021/Daily Sales Info.xlsx
+++ b/October'21/20.10.2021/Daily Sales Info.xlsx
@@ -31533,7 +31533,7 @@
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="A9:XFD9"/>
+      <selection pane="bottomLeft" activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35152,8 +35152,8 @@
   <dimension ref="A1:W30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
+      <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37021,7 +37021,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7:C27"/>
+      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37032,7 +37032,7 @@
     <col min="13" max="13" width="9.140625" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="0" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" customWidth="1"/>
     <col min="18" max="18" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -38102,7 +38102,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P25" s="26"/>
+      <c r="P25" s="26">
+        <v>6700</v>
+      </c>
       <c r="Q25" s="26"/>
       <c r="R25" s="24">
         <f t="shared" si="3"/>
@@ -38265,7 +38267,7 @@
       </c>
       <c r="P28" s="45">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>6700</v>
       </c>
       <c r="Q28" s="45">
         <f t="shared" si="6"/>
